--- a/scraper_Property.xlsx
+++ b/scraper_Property.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="25875" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t xml:space="preserve"> String id</t>
   </si>
@@ -226,6 +231,10 @@
   </si>
   <si>
     <t xml:space="preserve"> //img 와 같이 경로를 포함한 태그의 경우 경로를 외부에서 접근가능토록 절대경로로 재 가공한다.</t>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,54 +245,94 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">제목&amp;lt/p&gt;과 같이 적을 경우, 태그가 남아있게 된다. 이런 내용까지도 제거하기 위함. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타이틀 중복체크 수행여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">제목&amp;lt/p&gt;과 같이 적을 경우, 태그가 남아있게 된다. 이런 내용까지도 제거하기 위함. </t>
+      <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> boolean checkDuplicateTitle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -305,8 +354,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -317,15 +372,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,28 +681,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="50.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="139.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -661,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -685,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -693,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -701,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -709,7 +766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -717,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -725,7 +782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -733,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -741,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -749,7 +806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -757,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -765,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -773,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -781,7 +838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
@@ -789,7 +846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -797,7 +854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
@@ -805,7 +862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
@@ -813,7 +870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
@@ -821,7 +878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
@@ -829,7 +886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
@@ -837,7 +894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
@@ -845,7 +902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
@@ -853,7 +910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
@@ -861,15 +918,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
@@ -877,7 +934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -885,7 +942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
@@ -893,7 +950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -901,7 +958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
@@ -909,7 +966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
@@ -917,7 +974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
@@ -925,12 +982,20 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +1004,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -949,10 +1019,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -962,9 +1037,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/scraper_Property.xlsx
+++ b/scraper_Property.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t xml:space="preserve"> String id</t>
   </si>
@@ -278,6 +278,24 @@
   </si>
   <si>
     <t xml:space="preserve"> boolean checkDuplicateTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int maxLength</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대길이 한정</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -354,8 +372,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -379,9 +409,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -996,6 +1030,14 @@
       </c>
       <c r="D38" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/scraper_Property.xlsx
+++ b/scraper_Property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t xml:space="preserve"> String id</t>
   </si>
@@ -235,6 +235,12 @@
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> boolean checkDuplicateTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int maxLength</t>
   </si>
   <si>
     <r>
@@ -245,57 +251,23 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="GulimChe"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">제목&amp;lt/p&gt;과 같이 적을 경우, 태그가 남아있게 된다. 이런 내용까지도 제거하기 위함. </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타이틀 중복체크 수행여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> boolean checkDuplicateTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> int maxLength</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대길이 한정</t>
-    </r>
+    <t xml:space="preserve"> //타이틀 중복체크 수행여부.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //최대길이 한정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// PK가 순차적인지 확인 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boolean isSequencial</t>
   </si>
 </sst>
 </file>
@@ -319,24 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="굴림"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -353,6 +307,25 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="GulimChe"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="GulimChe"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="GulimChe"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,36 +349,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -737,307 +716,393 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/scraper_Property.xlsx
+++ b/scraper_Property.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t xml:space="preserve"> String id</t>
   </si>
@@ -269,12 +267,51 @@
   <si>
     <t xml:space="preserve"> boolean isSequencial</t>
   </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>skipWhenPKLesser</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// PK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교하여 작으면 바로 종료하는 설정,  'N' 이 아니면 기본적으로 'Y'</t>
+    </r>
+  </si>
+  <si>
+    <t>duplicationAction</t>
+  </si>
+  <si>
+    <r>
+      <t>// PK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가 중복일 경우 작동방식. SKIP_WHEN_DUPLICATION(중복무시) 과 BREAK_WHEN_DUPLICATION (중복종료)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +364,13 @@
       <name val="GulimChe"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -375,17 +419,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -694,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -708,406 +752,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1118,40 +1183,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>